--- a/doc/ue_actor_replicates.xlsx
+++ b/doc/ue_actor_replicates.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\ue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9458A6DB-82A9-4463-B14B-C777F5C96171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="发包流程" sheetId="2" r:id="rId2"/>
-    <sheet name="收包流程" sheetId="6" r:id="rId3"/>
-    <sheet name="结构体" sheetId="3" r:id="rId4"/>
-    <sheet name="发送消息包定义" sheetId="4" r:id="rId5"/>
-    <sheet name="接收消息包定义" sheetId="5" r:id="rId6"/>
+    <sheet name="原理" sheetId="7" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="发包流程" sheetId="2" r:id="rId3"/>
+    <sheet name="收包流程" sheetId="6" r:id="rId4"/>
+    <sheet name="结构体" sheetId="3" r:id="rId5"/>
+    <sheet name="发送消息包定义" sheetId="4" r:id="rId6"/>
+    <sheet name="接收消息包定义" sheetId="5" r:id="rId7"/>
+    <sheet name="ReplicateSubobjects" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="337">
   <si>
     <t>Actor</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1057,12 +1058,236 @@
     <t>收到NAK，强制回传</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>int32 UNetDriver::ServerReplicateActors(float DeltaSeconds)</t>
+  </si>
+  <si>
+    <t>ConsiderList.Reserve( GetNetworkObjectList().GetActiveObjects().Num() );</t>
+  </si>
+  <si>
+    <t>找到目前底层所有需要同步的网络对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最基础的同步流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Build the consider list (actors that are ready to replicate)</t>
+  </si>
+  <si>
+    <t>ServerReplicateActors_BuildConsiderList( ConsiderList, ServerTickTime );</t>
+  </si>
+  <si>
+    <t>！！！注意，这个里面遍历GetNetworkObjectList().GetActiveObjects()时，会判断ActorInfo-&gt;bPendingNetUpdate和ActorInfo-&gt;NextUpdateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！时间到了才会同步，否则不同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍历服务器的所有ClientConnections，为每一个连接执行一次上面对象属性的同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for ( int32 i=0; i &lt; ClientConnections.Num(); i++ )</t>
+  </si>
+  <si>
+    <t>UNetConnection* Connection = ClientConnections[i];</t>
+  </si>
+  <si>
+    <t>check(Connection);</t>
+  </si>
+  <si>
+    <t>// Get a sorted list of actors for this connection</t>
+  </si>
+  <si>
+    <t>// Process the sorted list of actors for this connection</t>
+  </si>
+  <si>
+    <t>const int32 LastProcessedActor = ServerReplicateActors_ProcessPrioritizedActors( Connection, ConnectionViewers, PriorityActors, FinalSortedCount, Updated );</t>
+  </si>
+  <si>
+    <t>TArray&lt;FNetworkObjectInfo*&gt; ConsiderList;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍历上面的所有对象列表ConsiderList;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>const int32 FinalSortedCount = ServerReplicateActors_PrioritizeActors( Connection, ConnectionViewers, ConsiderList, bCPUSaturated, PriorityList, PriorityActors );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满足条件的话，按照优先级放入到PriorityActors列表中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！注意这个条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（每一个元素包含了Actor和其对应的Channel，Channel可能为空的）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍历PriorityActors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FActorPriority* PriorityList</t>
+  </si>
+  <si>
+    <t>= NULL;</t>
+  </si>
+  <si>
+    <t>FActorPriority** PriorityActors = NULL;</t>
+  </si>
+  <si>
+    <t>！！！相关性包含时间间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果满足同步条件，如果Channel为空，则创建Channel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断Channel是否可以进行网络处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if ( Channel-&gt;IsNetReady( 0 ) )</t>
+  </si>
+  <si>
+    <t>！！！注意就是底层待发送的数据区是否满了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！可靠的发送队列是否慢了，很久没收到对方ACK就会导致可靠发送队列满了，最大255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行Channel-&gt;ReplicateActor()，进行该对象的属性同步处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！Channel和Actor有对应关系，内部维护了Actor对象指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Channel同步处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int64 UActorChannel::ReplicateActor()</t>
+  </si>
+  <si>
+    <t>复制前，牵扯到几个概念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor的优先级GetNetPriority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行Relevant相关性的判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Relevant相关性判断参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一旦到了这个地方，就是判断是否有数据变化然后同步了，之前那些参数就不判断了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bPendingNetUpdate和NextUpdateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！内部会进行优先级排序；调用函数GetNetPriority来计算优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AActor::GetNetPriority；各种规则，最终实在Channel上一次同步间隔时间的基础上，时间*一些系数来算的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不满足就修改Actor下一次同步的时间，设置成下一次必然同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要就是做了两个事情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步ActoR属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WroteSomethingImportant |= ActorReplicator-&gt;ReplicateProperties(Bunch, RepFlags);</t>
+  </si>
+  <si>
+    <t>同步Component属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WroteSomethingImportant |= Actor-&gt;ReplicateSubobjects(this, &amp;Bunch, &amp;RepFlags);</t>
+  </si>
+  <si>
+    <t>bool AActor::ReplicateSubobjects(UActorChannel *Channel, FOutBunch *Bunch, FReplicationFlags *RepFlags)</t>
+  </si>
+  <si>
+    <t>关于Actor的ReplicateSubobjects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for (UActorComponent* ActorComp : ReplicatedComponents)</t>
+  </si>
+  <si>
+    <t>if (ActorComp &amp;&amp; ActorComp-&gt;GetIsReplicated())</t>
+  </si>
+  <si>
+    <t>WroteSomething |= ActorComp-&gt;ReplicateSubobjects(Channel, Bunch, RepFlags);</t>
+  </si>
+  <si>
+    <t>// Lets the component add subobjects before replicating its own properties.</t>
+  </si>
+  <si>
+    <t>WroteSomething |= Channel-&gt;ReplicateSubobject(ActorComp, *Bunch, *RepFlags);</t>
+  </si>
+  <si>
+    <t>// (this makes those subobjects 'supported', and from here on those objects may have reference replicated)</t>
+  </si>
+  <si>
+    <t>遍历所有的组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对Component内部，非可同步的变量手动进行一次同步的机会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对Component内部，自身和同步的对象进行同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！例如GAS扩展后的技能和AS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1110,6 +1335,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1131,7 +1365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1149,6 +1383,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1428,11 +1663,439 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:U56"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="L2" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>280</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N14" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C17" s="5">
+        <v>2</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="P19" s="6"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>285</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="P20" s="6"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>297</v>
+      </c>
+      <c r="F23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O25" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="P25" s="2"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E26" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="O26" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="P26" s="2"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E27" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="O27" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="P27" s="2"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="33" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E33" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+    </row>
+    <row r="34" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E34" s="5">
+        <v>1</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="N34" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="5"/>
+    </row>
+    <row r="35" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E35" s="5">
+        <v>2</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="5"/>
+    </row>
+    <row r="36" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E36" s="5">
+        <v>3</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="N36" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="5"/>
+    </row>
+    <row r="37" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="N37" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="5"/>
+    </row>
+    <row r="38" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E38" s="5"/>
+      <c r="F38" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="5"/>
+    </row>
+    <row r="39" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E39" s="5">
+        <v>4</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="9"/>
+    </row>
+    <row r="40" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="9"/>
+    </row>
+    <row r="41" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="42" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="44" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C48" s="5">
+        <v>3</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E48" s="6"/>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C49" s="5"/>
+      <c r="D49" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="E49" s="6"/>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E52" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E53" s="5">
+        <v>1</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="G53" s="6"/>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="G54" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E55" s="5">
+        <v>2</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="G56" t="s">
+        <v>324</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1463,12 +2126,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1687,11 +2350,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C0F8D5-BB50-4AC4-9726-5774C141543E}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B8:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -1737,11 +2400,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I176"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" workbookViewId="0">
+    <sheetView topLeftCell="A160" workbookViewId="0">
       <selection activeCell="C180" sqref="C180"/>
     </sheetView>
   </sheetViews>
@@ -2569,11 +3232,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD3942AE-FF2C-4E76-A60E-6650D959908E}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
@@ -2798,12 +3461,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9657EC-02ED-4415-A31B-9EA71E8E27D0}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2964,4 +3627,95 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:S17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C5" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="E11" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>329</v>
+      </c>
+      <c r="S12" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="E14" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>331</v>
+      </c>
+      <c r="S15" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>